--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,67 +46,85 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>poor</t>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>instead</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>small</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>small</t>
+    <t>less</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>lasted</t>
   </si>
   <si>
     <t>paint</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>apart</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>okay</t>
@@ -115,111 +133,108 @@
     <t>ok</t>
   </si>
   <si>
+    <t>pay</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>difficult</t>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>though</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>pay</t>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>seems</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>though</t>
+    <t>could</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>worked</t>
   </si>
   <si>
     <t>fit</t>
   </si>
   <si>
-    <t>would</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>need</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>back</t>
   </si>
   <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>2</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
@@ -238,12 +253,12 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>fantastic</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
@@ -262,25 +277,19 @@
     <t>loves</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>loved</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>christmas</t>
-  </si>
-  <si>
-    <t>enjoy</t>
   </si>
   <si>
     <t>fun</t>
@@ -647,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -655,10 +664,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -716,13 +725,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -734,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K3">
         <v>0.8461538461538461</v>
@@ -766,13 +775,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -784,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K4">
-        <v>0.8214285714285714</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -808,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -816,13 +825,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7365591397849462</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C5">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -834,19 +843,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K5">
-        <v>0.7037037037037037</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -858,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -866,13 +875,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7105263157894737</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -884,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6">
-        <v>0.6774193548387096</v>
+        <v>0.8</v>
       </c>
       <c r="L6">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="M6">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -908,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -916,13 +925,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6990291262135923</v>
+        <v>0.7365591397849462</v>
       </c>
       <c r="C7">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D7">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -934,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K7">
-        <v>0.6666666666666666</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="L7">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -958,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -966,13 +975,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6824324324324325</v>
+        <v>0.71875</v>
       </c>
       <c r="C8">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="D8">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -984,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K8">
         <v>0.5094339622641509</v>
@@ -1016,13 +1025,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.676056338028169</v>
+        <v>0.7038834951456311</v>
       </c>
       <c r="C9">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="D9">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1034,19 +1043,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K9">
-        <v>0.421875</v>
+        <v>0.46875</v>
       </c>
       <c r="L9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1058,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1066,13 +1075,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6428571428571429</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1084,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K10">
-        <v>0.4202898550724637</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1108,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1116,13 +1125,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.640625</v>
+        <v>0.6283783783783784</v>
       </c>
       <c r="C11">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D11">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1134,19 +1143,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K11">
-        <v>0.3344262295081967</v>
+        <v>0.3459016393442623</v>
       </c>
       <c r="L11">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="M11">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1158,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>812</v>
+        <v>798</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1187,16 +1196,16 @@
         <v>14</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K12">
-        <v>0.3041606886657102</v>
+        <v>0.2998565279770445</v>
       </c>
       <c r="L12">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M12">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1208,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1216,13 +1225,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5925925925925926</v>
+        <v>0.6</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1234,19 +1243,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K13">
-        <v>0.2427385892116183</v>
+        <v>0.2489626556016598</v>
       </c>
       <c r="L13">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M13">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1258,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1266,13 +1275,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5882352941176471</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C14">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1284,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K14">
-        <v>0.2166666666666667</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="L14">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1308,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>94</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1316,38 +1325,38 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5777777777777777</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C15">
+        <v>70</v>
+      </c>
+      <c r="D15">
+        <v>70</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>49</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15">
+        <v>0.2166666666666667</v>
+      </c>
+      <c r="L15">
         <v>26</v>
       </c>
-      <c r="D15">
+      <c r="M15">
         <v>26</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>19</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K15">
-        <v>0.1807228915662651</v>
-      </c>
-      <c r="L15">
-        <v>30</v>
-      </c>
-      <c r="M15">
-        <v>30</v>
-      </c>
       <c r="N15">
         <v>1</v>
       </c>
@@ -1358,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>136</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1366,13 +1375,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5517241379310345</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1384,19 +1393,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K16">
-        <v>0.1681957186544343</v>
+        <v>0.1896024464831804</v>
       </c>
       <c r="L16">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M16">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1408,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1416,13 +1425,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5272727272727272</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1434,19 +1443,19 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>20</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17">
+        <v>0.1375661375661376</v>
+      </c>
+      <c r="L17">
         <v>26</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K17">
-        <v>0.164021164021164</v>
-      </c>
-      <c r="L17">
-        <v>31</v>
-      </c>
       <c r="M17">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1458,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1466,13 +1475,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5208333333333334</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1484,19 +1493,19 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <v>18</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18">
+        <v>0.09236947791164658</v>
+      </c>
+      <c r="L18">
         <v>23</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K18">
-        <v>0.1048951048951049</v>
-      </c>
-      <c r="L18">
-        <v>15</v>
-      </c>
       <c r="M18">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1508,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>128</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1516,13 +1525,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1534,19 +1543,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K19">
-        <v>0.09236947791164658</v>
+        <v>0.08413672217353199</v>
       </c>
       <c r="L19">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="M19">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1558,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>226</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1587,28 +1596,28 @@
         <v>19</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K20">
-        <v>0.09139784946236559</v>
+        <v>0.03311688311688311</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>169</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1616,13 +1625,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4811594202898551</v>
+        <v>0.4753623188405797</v>
       </c>
       <c r="C21">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D21">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1634,31 +1643,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>179</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K21">
-        <v>0.08413672217353199</v>
-      </c>
-      <c r="L21">
-        <v>96</v>
-      </c>
-      <c r="M21">
-        <v>96</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>1045</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1666,13 +1651,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4444444444444444</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C22">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1684,31 +1669,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>35</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K22">
-        <v>0.03958468526930565</v>
-      </c>
-      <c r="L22">
-        <v>61</v>
-      </c>
-      <c r="M22">
-        <v>61</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>1480</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1716,13 +1677,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4409448818897638</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C23">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1734,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>71</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1742,13 +1703,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4337349397590362</v>
+        <v>0.45</v>
       </c>
       <c r="C24">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D24">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1760,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1768,13 +1729,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3894736842105263</v>
+        <v>0.4173228346456693</v>
       </c>
       <c r="C25">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D25">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1786,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1794,13 +1755,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3703703703703703</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1812,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1820,13 +1781,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3515625</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="C27">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D27">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1838,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1846,13 +1807,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3270142180094787</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="C28">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1864,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>142</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1872,13 +1833,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3265306122448979</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1890,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1898,13 +1859,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3166666666666667</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C30">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D30">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1924,13 +1885,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.301980198019802</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C31">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1942,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>141</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1950,13 +1911,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2921348314606741</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C32">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1968,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1976,13 +1937,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.28125</v>
+        <v>0.328125</v>
       </c>
       <c r="C33">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D33">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1994,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>46</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2002,13 +1963,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2786885245901639</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2020,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2028,13 +1989,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2753623188405797</v>
+        <v>0.2796208530805687</v>
       </c>
       <c r="C35">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D35">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2046,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>50</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2054,13 +2015,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2678571428571428</v>
+        <v>0.2722772277227723</v>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2072,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>41</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2080,7 +2041,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.253968253968254</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="C37">
         <v>16</v>
@@ -2098,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2106,13 +2067,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2474226804123711</v>
+        <v>0.2393162393162393</v>
       </c>
       <c r="C38">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D38">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2124,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>146</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2132,13 +2093,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2448979591836735</v>
+        <v>0.234375</v>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2150,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2158,13 +2119,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2307692307692308</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="C40">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D40">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2176,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2184,13 +2145,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1958762886597938</v>
+        <v>0.213768115942029</v>
       </c>
       <c r="C41">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D41">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2202,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>78</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2210,13 +2171,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1839762611275964</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C42">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="D42">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2228,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>550</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2236,13 +2197,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.18</v>
+        <v>0.1958762886597938</v>
       </c>
       <c r="C43">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D43">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2254,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2262,13 +2223,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1772151898734177</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="C44">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D44">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2280,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>260</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2288,13 +2249,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1528662420382166</v>
+        <v>0.1828571428571429</v>
       </c>
       <c r="C45">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D45">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2306,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2314,13 +2275,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1521739130434783</v>
+        <v>0.1810089020771513</v>
       </c>
       <c r="C46">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="D46">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2332,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>234</v>
+        <v>552</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2340,13 +2301,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1518987341772152</v>
+        <v>0.180379746835443</v>
       </c>
       <c r="C47">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D47">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2358,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2366,13 +2327,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1428571428571428</v>
+        <v>0.1648351648351648</v>
       </c>
       <c r="C48">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D48">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2384,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>120</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2392,13 +2353,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1388888888888889</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="C49">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D49">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2410,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>93</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2418,13 +2379,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1387665198237885</v>
+        <v>0.1574074074074074</v>
       </c>
       <c r="C50">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D50">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2436,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>391</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2444,7 +2405,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1271186440677966</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="C51">
         <v>15</v>
@@ -2462,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>103</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2470,13 +2431,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1142857142857143</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C52">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D52">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2488,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>155</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2496,13 +2457,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1121495327102804</v>
+        <v>0.1387665198237885</v>
       </c>
       <c r="C53">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D53">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2514,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>190</v>
+        <v>391</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2522,13 +2483,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1120689655172414</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="C54">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D54">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2540,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>309</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2548,13 +2509,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09836065573770492</v>
+        <v>0.1307692307692308</v>
       </c>
       <c r="C55">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D55">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2566,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>165</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2574,13 +2535,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.09677419354838709</v>
+        <v>0.13</v>
       </c>
       <c r="C56">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D56">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2592,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>224</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2600,25 +2561,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.0851063829787234</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C57">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D57">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E57">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>172</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2626,13 +2587,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.0821917808219178</v>
+        <v>0.1048689138576779</v>
       </c>
       <c r="C58">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D58">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2644,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>335</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2652,25 +2613,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.0738255033557047</v>
+        <v>0.1005747126436782</v>
       </c>
       <c r="C59">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D59">
         <v>35</v>
       </c>
       <c r="E59">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>414</v>
+        <v>313</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2678,25 +2639,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.07116104868913857</v>
+        <v>0.08502024291497975</v>
       </c>
       <c r="C60">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D60">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>248</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2704,13 +2665,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.06760563380281689</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C61">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D61">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2722,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>331</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2730,25 +2691,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.06095551894563427</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="C62">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D62">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E62">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>570</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2756,25 +2717,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05324074074074074</v>
+        <v>0.07945205479452055</v>
       </c>
       <c r="C63">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D63">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E63">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>409</v>
+        <v>336</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2782,25 +2743,155 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.02781289506953224</v>
+        <v>0.06785714285714285</v>
       </c>
       <c r="C64">
+        <v>19</v>
+      </c>
+      <c r="D64">
+        <v>19</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>0.06085526315789474</v>
+      </c>
+      <c r="C65">
+        <v>37</v>
+      </c>
+      <c r="D65">
+        <v>37</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>0.0467706013363029</v>
+      </c>
+      <c r="C66">
+        <v>21</v>
+      </c>
+      <c r="D66">
+        <v>21</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>0.04225352112676056</v>
+      </c>
+      <c r="C67">
+        <v>15</v>
+      </c>
+      <c r="D67">
+        <v>15</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>0.04186046511627907</v>
+      </c>
+      <c r="C68">
+        <v>18</v>
+      </c>
+      <c r="D68">
         <v>22</v>
       </c>
-      <c r="D64">
-        <v>25</v>
-      </c>
-      <c r="E64">
-        <v>0.12</v>
-      </c>
-      <c r="F64">
-        <v>0.88</v>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <v>769</v>
+      <c r="E68">
+        <v>0.18</v>
+      </c>
+      <c r="F68">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>0.02025316455696203</v>
+      </c>
+      <c r="C69">
+        <v>16</v>
+      </c>
+      <c r="D69">
+        <v>20</v>
+      </c>
+      <c r="E69">
+        <v>0.2</v>
+      </c>
+      <c r="F69">
+        <v>0.8</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>774</v>
       </c>
     </row>
   </sheetData>
